--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/58_Mersin_2020.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/58_Mersin_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{274E16FA-03FC-454E-8D2B-00FFAFC2D3E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05FE790A-22AE-4B89-BF40-A625BCA19D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="673" xr2:uid="{6C2DAE0E-C449-4BFF-A4A4-47310A8D3928}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="673" xr2:uid="{FDFB4104-B871-4A4B-BF51-41858706C97D}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -952,13 +952,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{0BB03E78-F698-4726-91F8-EDA86D01504A}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{B261A1D2-34EB-45F2-B93D-6E8315B5EA3E}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{C9A02675-4C6B-405F-BD43-3C4D3A78D3BB}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{E9359578-AEEC-4BDC-83FF-D8F5E229170A}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{CF5FAB0B-4E5D-4BDC-B6DC-9E510AC688C3}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{9463E2F1-B27D-4B3D-8596-91419CE47727}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{2C77B800-519F-4801-91DE-52ACC4A7A820}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{E5D4AFB6-5718-4456-B51A-2513E83358E5}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{1CC48F99-BB36-4DC5-B28D-93DA493E1CC0}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{72B194E3-566B-4C7D-AA79-5644278B182D}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{ED8DF1B5-104D-44A2-8D71-8700A09B52A0}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{A0995971-80D8-4023-8BD9-514654D5F84B}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{3064AF97-3F83-4D6D-826C-73AD88368227}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{69A71500-C43B-48BD-BD23-8007CBEF82DC}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1328,7 +1328,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62229CDF-FD37-492A-A26F-83BF5A2716AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE64E81-A578-4598-BBD6-579AC294A58C}">
   <dimension ref="A2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2600,18 +2600,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E7ED3F03-AB2A-4171-81A4-1E9D7CABA82D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9B735ED1-6802-41D3-A9BC-5CAED6A46140}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{EF5BBE9C-05C2-47F3-B4D1-860332B20FA4}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EFBE9632-AEF8-421A-BD81-254D967C93DE}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{D2B49508-03DF-4B7F-8A2A-561BE4CE92B9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DD169CD0-03A5-4F40-9F7C-C3E5656262AF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{08A1251B-9D26-444D-96F1-D611971D9B2B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6B8C2698-7E46-41EC-A0CC-E63F84952A9C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{98D411BD-B6C7-4E14-A8EB-D21DE48A782A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E4A5B5CA-FAC6-42D4-9225-A0F978C0C945}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A5E8C5FB-5ECB-4629-8549-4572B75B5CCA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E0F1E12F-E126-45C9-9099-0DCD34AAE129}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{668F88D1-551B-48F1-980C-844147D2A250}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{88988F9D-F435-4EDA-893A-E8640B5F300A}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{887C8D70-C70D-4F2B-8798-78895F60AC60}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7B2EB039-7677-43CA-995F-F9B36C1F6FA2}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{44705EAD-247B-4299-B242-D30FA1429D91}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E721A8FF-F1B5-4F97-8915-18F8C2863EDE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2F9E13B7-3F92-44CC-94B1-4FD041468652}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D97B383D-D877-4E75-86FE-F78CD7D721CA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D80291D9-B94D-46ED-B6D4-7906B732FCE7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8A442DF1-6BAC-472B-8B94-1624C5516598}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0586F6CD-7AC5-46CA-9E33-B3581CEFD3EB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{40793554-C7FB-4E38-9125-700C9EEFFFB8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2624,7 +2624,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F49E134-ED4F-4B90-8632-2FC26A6CC782}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26A1E28B-10AB-4315-9ACC-274731327268}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3883,18 +3883,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FAAD8ED9-8307-46B5-B4BF-EB3D184D1A09}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{52BA86D2-5F0F-4468-9EE3-5EBA9F43D503}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{CF6D17CE-B545-443B-A6CA-A5421CC88913}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C87A918E-37EF-4BCE-A5C5-A60749B5228D}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{ADD56F41-E358-4FBC-B4F7-1A1DB2606F63}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BF19769D-1828-4040-92D3-4B692DDDFE5F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9B7F2647-788D-4E8E-9C66-A36B71F743AD}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B2033FA7-F1D8-40D6-9912-8B4AA6526CE8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{81FDEE65-6DFA-4D1E-8889-6BF535454186}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8790FD4E-E531-4AA5-9B32-B02BB9C3D231}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{328F7365-BAAE-4218-B78A-667141AE1A3A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6FF0270A-D1EC-42B7-ACA1-FF948B3FC7F4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F1222870-6E50-4B39-B4F7-CF62F8831284}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7CEC6212-8A62-46D2-A197-322623C84A36}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{26BC2F5B-D667-4427-BF59-5BFDC9C66BD9}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{540B0F87-BFD0-40A4-80C5-4A43A346BA9C}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{63D531D1-01A3-45BC-A095-CDA0A0D1FBAC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9038D4AE-662A-4724-AD47-54BE1F540E54}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FBFFDB7C-5741-4583-8DED-E54A341E9240}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F89E2C9E-6702-4969-ACC3-A5695393AFA1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3A77B689-CE2C-4532-8A91-C89A18E11F47}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AC4393FD-000E-4DD3-AFB5-BB5592B39A10}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6DAE5EE0-B184-460A-A7EC-DF29781E8373}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9F8379A5-A261-441F-9DAA-37871DF70FA6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3907,7 +3907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46469D63-AD62-42A2-839E-8EDC0480AAB3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87034984-B09E-4B33-B588-7721EDBAFE9E}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5168,18 +5168,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{60AEACDC-2669-458D-829A-CEABBF403929}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6F77E212-F4F0-4837-9B65-BDF79A08BA86}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{99BFE308-E826-47E3-A098-C588D6069501}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D0D7C285-881C-4222-8E64-DB9C9F740BE1}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{DD0A25A1-A4CA-48F8-9AE8-F41D075DD099}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8D19D8E8-C7A9-4E2E-9DBB-CB2505F11BFB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B3F6F779-C97A-4A9A-ABDD-4CBB27C99494}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B6C28DAB-318D-4EFD-B8C3-2F489FD33141}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8F81E108-66BF-4EAF-83BE-9D03B2929160}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{31F3C3DE-26BB-4442-9530-A07C31D1717B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F1876BE8-C641-4867-8CE5-9C0109568E3C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{82FE40C8-107F-4116-B9F9-0AA063AF1491}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D2CE6AD9-628F-4BD9-8312-78BE366023E6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CAE16718-23D1-405B-9D02-AD7D0909766C}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0AD0B50D-0153-41F4-8CC4-827AD5DBB0D6}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D1CE089B-76D9-447E-B2C5-BBFED16A4366}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{0CD0DC97-D8F5-4F06-B939-7ADC6334D7A8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6DCDDBF0-398D-41A5-85C1-47DBD3F58A6A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4BDBED87-27EB-4CA0-AA2B-D8A9DF5AF19D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{722259D7-0D3A-4172-913D-904C5A6C4D8E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CEFDA770-25EA-4699-8380-EEE1E00DEE8E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{13E92F68-2F83-44E2-8CBB-575FAEACF6F2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1CDA719A-008A-44E3-8CC9-968DC2842F3D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DE52DD03-55C0-4E7A-BCDA-04B2B89B9431}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5192,7 +5192,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA42AC0-5723-4D24-9246-D4201560D0F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ADE6192-88A1-40F6-9ED5-CB6037B7CB8E}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6444,18 +6444,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{30F315F2-BE75-4E99-9D9C-62BF29ECFA81}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{ACBDC299-CFA4-4795-B337-8C5DF50D7494}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3BBB31F2-526A-4B03-8B4A-D7A8C9D7CE09}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F96349A2-2EC0-4F0E-A86C-F20B43A7D589}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{4B9BE72B-794A-409C-8782-A0C93E7569AD}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FB7BCDD9-67E9-439D-97E6-171AE8A2CB04}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{515FCDA8-FCAB-4885-A585-0B2890406C99}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CBE325E3-56CF-42B8-80A2-42E9829BA11A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{943C8AB4-8489-4F99-B92E-C90EB864A44D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{122367E9-B04F-4F12-848F-C008C3899C3E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8BE1AD6C-0AF3-4407-98F2-62DE2A7269FD}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EB091936-AA6A-4E2C-BB3E-FD45E3D4D930}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{043C4C0E-0302-4383-81BB-3A22493D3F9B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D9E3A7FF-D6F6-4BD1-96FB-355F199CD9CC}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4E8C6145-F7EB-4650-A2D7-C40B8A00C1F1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{667F3F81-AA8B-42FC-B49F-89AD7C51CFF4}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{EE9E6E62-D6BC-4E5B-A14C-8B086D77E429}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A425F6D5-077C-41F3-9466-59B40736C76D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8177CDA9-89D0-4ADA-BBC6-72D8BCC279E5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E265F483-E4BE-4984-94DF-119F52DF6D15}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5828CEBA-B38D-4CE6-BE60-12369E7BDF51}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{52A8B617-5B66-4FC2-83A6-9EAEF276D296}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9E96511E-8CF4-42D4-A496-13B8AE93BB60}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{82183164-1A58-409B-8795-E4E91A68262B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6468,7 +6468,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E9F8A0-A09C-45B3-8DE1-3C27E33B375B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774AFAD0-ADAF-4F38-9C60-8D73206A5366}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7735,18 +7735,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D5C5C3C5-9955-47C1-83B7-73D086A9313C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{420A8D3E-2B05-4832-BC58-3B819EC4E6F9}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E3BF3DCA-F603-465C-A092-AC0F8A29DFB7}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E9EBB73A-82BD-4A3E-A9F9-179154FF719A}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{28A86D3F-33BF-47A8-B82F-E69ABC3D4265}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EBFD5007-D37D-4829-B5EC-8B85BDE6006E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FDD34035-515E-4DBD-8AFC-B723C221578B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{75D2F03D-D4CE-4449-BF3B-401283CAC3A2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E96B8E04-C329-4D26-A54C-4B5D2382CC00}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{973FB80D-B423-4933-A1DD-65ADE3F26949}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CCAFB179-0240-4932-9D4C-9327C8ADC65D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{033C0837-8183-4500-9DA6-2602B89EAFBF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9ED5D8F7-8D4A-4352-A609-7F2FA297A7E0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3F588EBF-9299-4C6F-A682-189CDCC06E41}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4B60522B-AAE1-4D15-9787-876CA8201546}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{878C4543-B0C3-4856-B15C-B53B29EC4E7F}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{D3F1161C-4AF7-490D-BB7D-303C1FB88889}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B4474D75-4A2E-4C59-A8AE-904B0776DD3D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{35D2BC05-38AD-42B8-971E-19A9DE40E48E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0BFF1675-60AB-433A-824C-D218455F04DF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B4843C00-F330-4806-A0D2-C50B0C4817A7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D5AFD070-67F9-45A9-B440-298F0A299CB5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{332B0136-0695-49C9-B6AB-D118AB4DCCE8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3BC64688-1478-4AB7-9C94-798BC8BDBDAF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7759,7 +7759,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FD6ABA3-492F-48FE-A924-50BFA517AC98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{745D4E90-01FB-4FBC-938A-A9357E0C8AA2}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9026,18 +9026,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FF6435A0-DB2B-4D28-A709-D1B3F6EB77FF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CE0D284E-16EE-46C5-B1B6-B70FB9CBA787}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9F0D3F2E-236D-4FC3-BA32-783041D86CA3}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C2819E8E-6FCB-4421-922E-DC4E9BE10AD1}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{E0791F83-CE44-47B2-8FFF-11D090D73C2D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{17A37167-3184-486F-94E9-8977387F73AB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C9CE645D-4005-4DA8-BBE9-DEB594DAAE4B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1C69C316-CCE3-418E-A5ED-D94759945E96}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{41C678B8-E2F0-4C35-926F-7561DC575838}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{51F31D16-B58D-428C-B640-5B893EE6376E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{ED644948-2475-4BC7-8282-A126B55EFB50}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EDFE989F-FECE-48A3-82DB-4C97395679FD}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DC4A0664-38FC-4FA2-A842-9C9D3C110319}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6E0AB201-DB44-4287-86B9-C122345BB65E}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1C030C8B-0ABE-42DF-8926-C547E1B500F4}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{60A87E2B-324B-49D5-919F-BC65FD4B0797}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{0D7E3017-7B00-419D-9EFC-A97497CEDA36}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9147AD09-EB97-4D6D-9C46-B3068C869D79}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5A815BCD-8138-4085-BF44-7F14D04F39C0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7D997374-68E7-4F71-9E63-0A9E778FCC29}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{35A615F2-8D93-49AA-81D6-EE5F8A7ADBA3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FC6A7626-9ED5-468D-B664-17B327132089}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8C3F8082-CAFC-4445-93E5-5B3C8EC3A3B3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F0209587-A2E8-45B4-B231-9A19E0DD0432}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9050,7 +9050,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE0A068D-9BB3-4293-A578-0A3957489588}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1A8DD17-8121-4946-A8FF-CBA5EAC2BB98}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10317,18 +10317,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{34399008-3C80-46EE-90E7-691C53BCDBBC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{064604E7-88CD-4F6D-B03C-AFA7A8A61318}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{91DAE364-A6C9-4BF6-9A56-F93E7B81B3B3}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{16B80CBB-FA18-484A-971F-A0F49986AF4F}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{4B2E1EE5-8DDC-4F6B-93B8-9CACFFA1D27A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B560BF85-5D5E-484F-8761-F8ED4ED4CADA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FFDE7B29-8688-402E-9666-C5E8EAB3D643}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3B2B3032-FE94-4FAC-A9E0-48C4CCDFA3DC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F9FD6A58-AC4E-4396-8EB6-6B55BF1FF0A0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2AFD712B-A9E3-4A80-80B1-7FD624AF4DCB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{357FEE1C-7568-419C-8CAF-BE97742CF89F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B1AA19FE-0008-4DDB-93F2-D735C2950FE7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D422C8F0-67CA-401E-B893-C94C975CA7D9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{674D1902-8022-42D5-86F1-3D6A0F5B1506}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B891862E-7677-4E51-9117-409BFC362304}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{394A2EE9-4620-4AB6-9C6D-D51538FECC5A}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{083E7790-EAC3-4524-9E3F-22C5CFE50477}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B10BA33D-D859-4A7D-9332-89E6E4BED24E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2DCA47C8-2450-4B08-9435-6ADCFF9A8FAE}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{184F61B1-1633-4271-B336-4D6D69592950}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1653363E-EAAC-4FF9-946F-87BEE44CAB5D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1F7CA507-FB3C-4B68-9946-BA0DE6731F46}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E2156D94-3718-46FF-AB3A-607C87A91D47}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{026A4E06-4F68-4263-8936-BB1844E0C29D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10341,7 +10341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F193D6CC-89B8-4D7D-97E4-82A7071068AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A7A2DD-FED1-48B6-9549-F874D601D711}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11608,18 +11608,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9CAB16BE-3A34-45E5-B935-C67B277AE423}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C79E32E3-1E6B-4D12-8EE1-28A97A85D297}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6F8EE51F-97ED-4ADD-839C-858C2462A66D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B7628306-2E5C-4FE9-8A0D-18FFCE652268}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{B750EE8E-BD2E-4CFA-9C61-3FDF50343708}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1B8AA8AB-6093-4854-A49E-5E59D83CE0F3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DF66D3EC-C27D-4659-A4BD-C55FA1D32EF0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{559FA988-9A7B-4674-BC02-9577F9FA944F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FB1DF8B6-CDD4-4021-A4C9-C4A82C6CA23D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8CD375A4-E2C5-4DD2-88B0-6E6C33ED84AA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7A1E42AE-A7F8-4A21-983E-1C613FA0FCE2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F5ED6C31-1B14-44D4-9B68-27614AEEDE7E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9D93E3F9-5E27-4592-808C-39AAD3B71F9E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{583C49F9-139E-4D83-AEC9-9A2FCAEFD166}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8F7AF061-B936-41FF-8755-4A005C661423}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{58AAE83B-CB4F-4BEB-9DCA-E37B50417312}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{F1D99273-95D3-4A3C-8436-7B3F203F188D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6B8D276C-10BF-4E40-8C9B-A51765CDF1C0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{603B8341-098C-4298-942E-7CF78C372E1A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AF241B25-1275-4431-847B-E65867025437}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D00E566D-4C28-4E33-8E6C-7CC75C86F084}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5290DB71-F23E-4033-A06B-00E80C211F8A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0A775D1F-6DD9-4A68-B9B4-4A4B70C2DDD4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3E85BCBF-99CB-42A9-A6B2-BA96F2FBEC61}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11632,7 +11632,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{648D15CF-510E-4391-A2AF-C887E4F5FD64}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{644A7012-230E-4180-9310-D3DB42BABAFE}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12899,18 +12899,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D9676292-9F49-4033-A357-55ABC4AD31B4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DB719DC0-B7B7-4D2B-B7DB-A05BBF277DB3}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A0663ADA-6192-4843-9F77-18075E0F3655}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{96AEEC2C-8456-45CE-825C-571ED0E5E1BB}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{5950F755-F94E-465A-80C0-9DABC5644DE2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3940857B-E266-4706-AD5A-08241FFE8251}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4A4C19D3-ABAA-4407-8BAA-59D45ADB9275}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{53B2961B-D99F-4929-B0B1-3ABA946D6F3E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1B18E822-FC82-457A-97F1-C777CFF7CEA6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{31578C85-59AA-4445-8679-14E75CA22B0A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F9E60E5F-D8C3-43EE-AA68-0189D9771A81}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9F5E76EE-FADA-4327-998D-3409254B4DF7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B473B4B8-F545-4BE0-BEB4-5FD58D31AD39}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{16DB5845-C050-4935-8DAC-C17575114929}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1A1762A4-46B5-477E-9534-06CBF9FCADF7}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FA6D4D7C-22D3-4CFD-B1EB-6C0EBAD45CAF}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{3139687A-454E-44DE-AADA-02D4ECE4356F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0260FFFC-D993-451B-A70A-9F3086629AC4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{935E2629-4267-4E63-B9F2-F427D8A78A8F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{87E69A5F-295D-478E-BD08-1CC37F394FFF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E6A8CA62-DBE3-4568-8874-01E8F5D8F651}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C9D1E868-067C-438F-8440-BE48324A4410}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B02CBE82-B420-4BA2-87C6-116B5E074EFA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{648888DE-29F2-40B7-A09C-FE9712F6501A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12923,7 +12923,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D02C6455-BB18-42AE-9E3F-3744DBB56E78}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F09537-41A4-41E3-87A7-16927FFF75D6}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14190,18 +14190,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{40BD8C77-C051-4DAD-AAD6-B7E6204A0891}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{92F4208C-C6F0-4C2E-BF04-A57BDE08229C}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5D9D0EFE-7A8B-4779-A018-C1E4696E7A1D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{19D24281-1964-4251-B50F-D63FE020CD76}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{4F244C8E-C6D8-4579-BFC6-597E790451B0}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{61C05B01-12EF-49AE-8C2D-CCAA8C7BB592}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{10126DB4-0EEA-4952-B620-9AE0B289F9AE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5BBF1E73-99F7-4CF8-909F-77F69C38CC27}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8BE6D203-5320-4B3C-9DC7-1CE390532B45}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8DCF201D-7042-460C-970A-24F68AE055E3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D0C8DE3D-31D8-4AC3-BB86-939065AC3326}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A308DA01-06C7-4824-81D0-1D36BEAB3B70}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0E1E377F-EAE1-4F65-BF7B-48C7D9E09E35}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0D314B66-173E-455C-9629-05652307787C}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9B34E9D8-850A-4C0F-94B1-0F1D5D0F92DE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B200B8A5-CC6A-4039-8CC0-CF0C7AAED23F}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{150B0B78-743E-4534-9FCC-B76FEB1D12BB}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F8B77B5A-A90B-402A-94E1-E2F725E2C863}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{39AEBB7C-42D8-4DDF-B17B-F023E762F610}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{98806091-E18C-4745-9792-82A719959C21}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F3B7A585-E699-4267-9BF5-248EC6E57341}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BEC2872A-11E9-4175-8354-88D1CD20765D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A99E6A32-BFDB-4BDD-AD22-CD3E25BFDB47}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{10FA26B2-0821-41A4-B6AD-91BA1EB47018}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14214,7 +14214,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34B8003-11E6-4A14-BEBC-BEC216183DD1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0117724-0D59-4E01-A7E8-4C66F6A2B11A}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15483,18 +15483,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{18EA5E02-CC3B-4CDC-B200-A9C51C98D3DC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{764B25CE-4423-4AEA-BD25-E17C4D3B1E16}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D869AAA4-12FB-471E-B31F-C70F377DCCAF}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{443878E0-30BA-4352-A4CB-E8C3ADE0C3BB}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{58CF464C-B514-4E7C-9B60-37CCBA9705AA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6B9788E7-AA4F-47AF-AAD5-2F5A73FEE506}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{004B4618-8025-4785-A305-55654896D3E1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C8DBC27A-4B66-4447-99A4-62DE94708F4E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9F057BE6-E7B6-4E66-BD20-8B63B8126389}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{63829385-6147-4DF4-8C76-58B7050A19BB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CF37C52F-E298-4891-BE5B-6C87FEAB36DE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F0ED0C25-9440-4E5A-89CE-8EAD6D00A1E3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9239D6B9-78CC-41A1-9463-2B6C6BC63703}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B6EACC24-B514-4213-B3F8-1730700B6518}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{234A5762-55F1-4A25-9504-CA88C48C8DCF}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{13188599-52C8-446E-853C-094A0F4051B8}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{4CBE798E-3913-4ACF-884A-4B26717F8DBB}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2E62B164-66DB-4FEA-8B80-B183BE73F65B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A69EFD48-CAEA-48B3-A781-03207BACBC31}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8FE94F5C-AFF9-442D-B2BF-2AA19F4C8AAA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CF315CC8-38FD-4E6B-B5D3-2F9BB1B3B374}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7E939190-0791-413C-9E69-00D23602F750}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B326D7BB-1C02-4927-B52D-8D594066D444}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5D632CEA-3F37-4A61-8ED4-3654CDE98ADB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15507,7 +15507,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48FAA65C-B39A-46B3-9DFB-AE3A9627FAB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D79B833A-135C-4549-87EF-2B4B12041BC6}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16776,18 +16776,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C2F9C04A-F755-46B4-818A-4A25436C534C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F6DD8C08-DF78-4C0E-9491-CB2756ABD789}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E278C8EF-DC9A-40CE-9C3D-F28FC2CC75CB}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{54178504-7FA1-4B12-81D9-0D5B5B4444FA}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{F1300B35-4A81-4A63-8813-E8C7AAE42277}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E62203EF-1843-453B-8EE6-058843983561}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6058B0FD-14E5-475E-A7AC-F1CF1943FBFD}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C69B92E0-3444-43BE-9A40-1278583F823D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{950AB265-4E9D-4911-92B7-0097DB7104C9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B8A07705-AAF5-4AF7-BB6D-3E3F464942C9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{60AB91EA-9C5F-4654-A7BC-384C8A0B685F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C65A9322-467B-4BEF-8BB1-6D527675E526}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A9EA763A-6525-4137-A35B-46F3F1B38841}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{219A0C4E-245B-4D05-A76E-9CC51DC7347D}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C8620355-5631-46FA-B799-BC48518E14BC}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{26708FC1-4A5F-4CFD-94BA-24478710CBAD}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{0962C69A-C20A-4096-A5C0-0E43EC58D411}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{26C26CF1-0175-4F87-BF4E-303ADEFFC5C5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A230C5D9-C568-48C5-9333-933A2D982110}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{50283084-7542-4E1C-944E-66A92AA2711A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{47FCDABB-8D0C-4C6B-851F-72BEC8EAD69B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7E9100BB-F864-4518-A49E-A899F30D9903}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{024C9A73-11DD-4D12-B082-87CD4B8DCF76}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B11E0183-90ED-4211-94B9-777893204107}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
